--- a/storage/app/export/product-size.xlsx
+++ b/storage/app/export/product-size.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +389,7 @@
     <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16" bestFit="true" customWidth="true" style="0"/>
@@ -427,10 +427,92 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2">
         <v>2.1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3106</v>
+      </c>
+      <c r="F2">
+        <v>21.44</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>54</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>9.0</v>
+      </c>
+      <c r="B3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10.0</v>
+      </c>
+      <c r="B4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4.0</v>
+      </c>
+      <c r="B5">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>8.0</v>
+      </c>
+      <c r="B6">
+        <v>2.3</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>999</v>
+      </c>
+      <c r="F6">
+        <v>8.32</v>
+      </c>
+      <c r="G6">
+        <v>487</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>11.0</v>
+      </c>
+      <c r="B7">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
